--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="160">
   <si>
     <t>Stok</t>
   </si>
@@ -478,6 +478,33 @@
   </si>
   <si>
     <t>hareket detay(20)</t>
+  </si>
+  <si>
+    <t>Tanım</t>
+  </si>
+  <si>
+    <t>Genel tanım</t>
+  </si>
+  <si>
+    <t>Ülke</t>
+  </si>
+  <si>
+    <t>İl</t>
+  </si>
+  <si>
+    <t>İlçe</t>
+  </si>
+  <si>
+    <t>Genel Tanımlar(700)</t>
+  </si>
+  <si>
+    <t>Ülke(10)</t>
+  </si>
+  <si>
+    <t>İl(20)</t>
+  </si>
+  <si>
+    <t>İlçe(30)</t>
   </si>
 </sst>
 </file>
@@ -823,18 +850,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,8 +880,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -873,8 +903,11 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -887,8 +920,11 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -901,16 +937,22 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -924,85 +966,114 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>143</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>137</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C34" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>138</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C36" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>140</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C37" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>141</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" t="s">
         <v>141</v>
       </c>
     </row>

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
   <si>
     <t>Stok</t>
   </si>
@@ -505,6 +505,18 @@
   </si>
   <si>
     <t>İlçe(30)</t>
+  </si>
+  <si>
+    <t>Cari(200)</t>
+  </si>
+  <si>
+    <t>Cari Tip(10)</t>
+  </si>
+  <si>
+    <t>Cari Adres(20)</t>
+  </si>
+  <si>
+    <t>Cari Tanım(30)</t>
   </si>
 </sst>
 </file>
@@ -852,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,6 +987,9 @@
       <c r="A26" t="s">
         <v>142</v>
       </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
       <c r="C26" t="s">
         <v>148</v>
       </c>
@@ -986,6 +1001,9 @@
       <c r="A28" t="s">
         <v>144</v>
       </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>149</v>
       </c>
@@ -997,6 +1015,9 @@
       <c r="A29" t="s">
         <v>143</v>
       </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -1008,6 +1029,9 @@
       <c r="A30" t="s">
         <v>145</v>
       </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
       <c r="G30" t="s">
         <v>159</v>
       </c>
@@ -1026,6 +1050,9 @@
       <c r="A34" t="s">
         <v>137</v>
       </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
       <c r="C34" t="s">
         <v>137</v>
       </c>
@@ -1037,6 +1064,9 @@
       <c r="A35" t="s">
         <v>138</v>
       </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
       <c r="C35" t="s">
         <v>138</v>
       </c>
@@ -1048,6 +1078,9 @@
       <c r="A36" t="s">
         <v>139</v>
       </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
       <c r="C36" t="s">
         <v>139</v>
       </c>
@@ -1059,6 +1092,9 @@
       <c r="A37" t="s">
         <v>140</v>
       </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
       <c r="C37" t="s">
         <v>140</v>
       </c>
@@ -1068,6 +1104,9 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
         <v>141</v>
       </c>
       <c r="C38" t="s">

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="166">
   <si>
     <t>Stok</t>
   </si>
@@ -517,6 +517,12 @@
   </si>
   <si>
     <t>Cari Tanım(30)</t>
+  </si>
+  <si>
+    <t>Şirket(40)</t>
+  </si>
+  <si>
+    <t>Cari Grup(40)</t>
   </si>
 </sst>
 </file>
@@ -862,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1046,12 @@
       <c r="A31" t="s">
         <v>146</v>
       </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1056,9 +1068,6 @@
       <c r="C34" t="s">
         <v>137</v>
       </c>
-      <c r="G34" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1070,9 +1079,6 @@
       <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="G35" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1084,9 +1090,6 @@
       <c r="C36" t="s">
         <v>139</v>
       </c>
-      <c r="G36" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1098,9 +1101,6 @@
       <c r="C37" t="s">
         <v>140</v>
       </c>
-      <c r="G37" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1112,7 +1112,29 @@
       <c r="C38" t="s">
         <v>141</v>
       </c>
-      <c r="G38" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1444,7 +1466,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10380" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10380" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
   <si>
     <t>Stok</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>Cari Grup(40)</t>
+  </si>
+  <si>
+    <t>stok sub gruo(60)</t>
+  </si>
+  <si>
+    <t>Cari sub grup(50)</t>
   </si>
 </sst>
 </file>
@@ -868,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,84 +1063,92 @@
       <c r="A32" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>141</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>141</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1694,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="171">
   <si>
     <t>Stok</t>
   </si>
@@ -529,6 +529,15 @@
   </si>
   <si>
     <t>Cari sub grup(50)</t>
+  </si>
+  <si>
+    <t>Prefix(50)</t>
+  </si>
+  <si>
+    <t>kullanıcılar(10)</t>
+  </si>
+  <si>
+    <t>Kullanıcılar Tanımları(600)</t>
   </si>
 </sst>
 </file>
@@ -876,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1014,9 @@
       <c r="C26" t="s">
         <v>148</v>
       </c>
+      <c r="F26" t="s">
+        <v>170</v>
+      </c>
       <c r="G26" t="s">
         <v>156</v>
       </c>
@@ -1019,6 +1031,9 @@
       <c r="C28" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
       <c r="G28" t="s">
         <v>157</v>
       </c>
@@ -1065,6 +1080,9 @@
       </c>
       <c r="B32" t="s">
         <v>167</v>
+      </c>
+      <c r="G32" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10380" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="172">
   <si>
     <t>Stok</t>
   </si>
@@ -523,6 +523,24 @@
   </si>
   <si>
     <t>Cari Grup(40)</t>
+  </si>
+  <si>
+    <t>((miktar * fiyat ) * iskonto oranı/100)</t>
+  </si>
+  <si>
+    <t>İskonto Oranı</t>
+  </si>
+  <si>
+    <t>Net tutar</t>
+  </si>
+  <si>
+    <t>A MALI</t>
+  </si>
+  <si>
+    <t>B MALI</t>
+  </si>
+  <si>
+    <t>Ödeme Tipi</t>
   </si>
 </sst>
 </file>
@@ -583,11 +601,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1466,7 +1485,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,24 +1711,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1717,75 +1743,187 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
       <c r="B10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>174</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J20">
+        <v>191.4</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>411.4</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1937,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="174">
   <si>
     <t>Stok</t>
   </si>
@@ -538,6 +538,15 @@
   </si>
   <si>
     <t>Kullanıcılar Tanımları(600)</t>
+  </si>
+  <si>
+    <t>SaveMovement(6)</t>
+  </si>
+  <si>
+    <t>CurrencyTypeEnumLookup(6)</t>
+  </si>
+  <si>
+    <t>PaymentTypeLookup(7)</t>
   </si>
 </sst>
 </file>
@@ -885,13 +894,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,6 +1153,19 @@
       </c>
       <c r="C39" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="175">
   <si>
     <t>Stok</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>PaymentTypeLookup(7)</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1169,11 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -549,7 +549,7 @@
     <t>PaymentTypeLookup(7)</t>
   </si>
   <si>
-    <t>..</t>
+    <t>TypeEnumLookup(8)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="177">
   <si>
     <t>Stok</t>
   </si>
@@ -549,7 +549,13 @@
     <t>PaymentTypeLookup(7)</t>
   </si>
   <si>
-    <t>TypeEnumLookup(8)</t>
+    <t>GetHeaderId(8)</t>
+  </si>
+  <si>
+    <t>TypeEnumLookup(9)</t>
+  </si>
+  <si>
+    <t>GetCustomerId(6)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,6 +1168,9 @@
       <c r="A40" t="s">
         <v>172</v>
       </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
       <c r="C40" t="s">
         <v>171</v>
       </c>
@@ -1177,6 +1186,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
       <c r="G43" t="s">
         <v>137</v>
       </c>

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -904,7 +904,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GP1.xlsx
+++ b/GP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="178">
   <si>
     <t>Stok</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>GetCustomerId(6)</t>
+  </si>
+  <si>
+    <t>Login(6)</t>
   </si>
 </sst>
 </file>
@@ -901,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1112,14 @@
         <v>166</v>
       </c>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>137</v>
@@ -1119,6 +1130,12 @@
       <c r="C35" t="s">
         <v>137</v>
       </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1130,6 +1147,12 @@
       <c r="C36" t="s">
         <v>138</v>
       </c>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1141,6 +1164,12 @@
       <c r="C37" t="s">
         <v>139</v>
       </c>
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1152,6 +1181,12 @@
       <c r="C38" t="s">
         <v>140</v>
       </c>
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1163,6 +1198,9 @@
       <c r="C39" t="s">
         <v>141</v>
       </c>
+      <c r="F39" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1188,29 +1226,6 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>175</v>
-      </c>
-      <c r="G43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
